--- a/data/trans_orig/P36B01-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P36B01-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C9872345-A85D-4C8E-8F26-FA3A9840B298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{26A6CC66-BFA7-46B7-AB2C-AE280E5F5C76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{488A34F1-14AB-4A6E-803B-6F998BC89873}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9195C676-DDA0-4F9F-886D-074AAE583B58}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="373">
-  <si>
-    <t>Población según la frecuencia de consumición de café o té en 2015 (Tasa respuesta: 99,79%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="368">
+  <si>
+    <t>Población según la frecuencia de consumo de café o té en 2015 (Tasa respuesta: 99,79%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -74,1084 +74,1069 @@
     <t>21,42%</t>
   </si>
   <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
   </si>
   <si>
     <t>18,99%</t>
   </si>
   <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>Menos de 1 vez semana</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>Una/dos veces a la semana</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>Tres o más veces a la semana</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>A diario</t>
+  </si>
+  <si>
+    <t>69,99%</t>
+  </si>
+  <si>
+    <t>64,11%</t>
+  </si>
+  <si>
+    <t>75,4%</t>
+  </si>
+  <si>
+    <t>73,16%</t>
+  </si>
+  <si>
+    <t>67,47%</t>
+  </si>
+  <si>
+    <t>78,25%</t>
+  </si>
+  <si>
+    <t>71,56%</t>
+  </si>
+  <si>
+    <t>67,45%</t>
+  </si>
+  <si>
+    <t>75,23%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>79,79%</t>
+  </si>
+  <si>
+    <t>76,07%</t>
+  </si>
+  <si>
+    <t>83,58%</t>
+  </si>
+  <si>
+    <t>83,05%</t>
+  </si>
+  <si>
+    <t>79,88%</t>
+  </si>
+  <si>
+    <t>86,31%</t>
+  </si>
+  <si>
+    <t>81,46%</t>
+  </si>
+  <si>
+    <t>78,73%</t>
+  </si>
+  <si>
+    <t>83,9%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>73,72%</t>
+  </si>
+  <si>
+    <t>68,83%</t>
+  </si>
+  <si>
+    <t>78,11%</t>
+  </si>
+  <si>
+    <t>78,27%</t>
+  </si>
+  <si>
+    <t>73,48%</t>
+  </si>
+  <si>
+    <t>82,34%</t>
+  </si>
+  <si>
+    <t>76,05%</t>
+  </si>
+  <si>
+    <t>72,93%</t>
+  </si>
+  <si>
+    <t>79,2%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
     <t>14,54%</t>
   </si>
   <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>Menos de 1 vez semana</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>Una/dos veces a la semana</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>80,54%</t>
+  </si>
+  <si>
+    <t>75,93%</t>
+  </si>
+  <si>
+    <t>84,48%</t>
+  </si>
+  <si>
+    <t>83,29%</t>
+  </si>
+  <si>
+    <t>79,02%</t>
+  </si>
+  <si>
+    <t>86,92%</t>
+  </si>
+  <si>
+    <t>81,95%</t>
+  </si>
+  <si>
+    <t>78,68%</t>
+  </si>
+  <si>
+    <t>84,73%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
   </si>
   <si>
     <t>6,14%</t>
   </si>
   <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>Tres o más veces a la semana</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>87,14%</t>
+  </si>
+  <si>
+    <t>81,66%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>89,77%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>35,74%</t>
+  </si>
+  <si>
+    <t>30,4%</t>
+  </si>
+  <si>
+    <t>41,64%</t>
+  </si>
+  <si>
+    <t>48,53%</t>
+  </si>
+  <si>
+    <t>42,44%</t>
+  </si>
+  <si>
+    <t>54,53%</t>
+  </si>
+  <si>
+    <t>42,25%</t>
+  </si>
+  <si>
+    <t>38,2%</t>
+  </si>
+  <si>
+    <t>46,62%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>51,48%</t>
+  </si>
+  <si>
+    <t>45,45%</t>
+  </si>
+  <si>
+    <t>57,62%</t>
+  </si>
+  <si>
+    <t>47,14%</t>
+  </si>
+  <si>
+    <t>41,0%</t>
+  </si>
+  <si>
+    <t>53,05%</t>
+  </si>
+  <si>
+    <t>49,27%</t>
+  </si>
+  <si>
+    <t>45,17%</t>
+  </si>
+  <si>
+    <t>53,73%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>84,61%</t>
+  </si>
+  <si>
+    <t>87,45%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>86,95%</t>
+  </si>
+  <si>
+    <t>84,98%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>88,05%</t>
+  </si>
+  <si>
+    <t>85,42%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
+  </si>
+  <si>
+    <t>89,1%</t>
+  </si>
+  <si>
+    <t>86,89%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>88,59%</t>
+  </si>
+  <si>
+    <t>86,93%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
   </si>
   <si>
     <t>1,96%</t>
   </si>
   <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>A diario</t>
-  </si>
-  <si>
-    <t>69,99%</t>
-  </si>
-  <si>
-    <t>64,54%</t>
-  </si>
-  <si>
-    <t>75,36%</t>
-  </si>
-  <si>
-    <t>73,16%</t>
-  </si>
-  <si>
-    <t>68,06%</t>
-  </si>
-  <si>
-    <t>78,22%</t>
-  </si>
-  <si>
-    <t>71,56%</t>
-  </si>
-  <si>
-    <t>67,34%</t>
-  </si>
-  <si>
-    <t>75,0%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>79,79%</t>
-  </si>
-  <si>
-    <t>75,77%</t>
-  </si>
-  <si>
-    <t>83,1%</t>
-  </si>
-  <si>
-    <t>83,05%</t>
-  </si>
-  <si>
-    <t>79,78%</t>
-  </si>
-  <si>
-    <t>85,97%</t>
-  </si>
-  <si>
-    <t>81,46%</t>
-  </si>
-  <si>
-    <t>78,81%</t>
-  </si>
-  <si>
-    <t>83,69%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>73,72%</t>
-  </si>
-  <si>
-    <t>68,43%</t>
-  </si>
-  <si>
-    <t>77,95%</t>
-  </si>
-  <si>
-    <t>78,27%</t>
-  </si>
-  <si>
-    <t>73,25%</t>
-  </si>
-  <si>
-    <t>82,47%</t>
-  </si>
-  <si>
-    <t>76,05%</t>
-  </si>
-  <si>
-    <t>72,43%</t>
-  </si>
-  <si>
-    <t>79,1%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>80,54%</t>
-  </si>
-  <si>
-    <t>76,27%</t>
-  </si>
-  <si>
-    <t>84,71%</t>
-  </si>
-  <si>
-    <t>83,29%</t>
-  </si>
-  <si>
-    <t>79,26%</t>
-  </si>
-  <si>
-    <t>86,97%</t>
-  </si>
-  <si>
-    <t>81,95%</t>
-  </si>
-  <si>
-    <t>78,97%</t>
-  </si>
-  <si>
-    <t>84,66%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>87,14%</t>
-  </si>
-  <si>
-    <t>82,27%</t>
-  </si>
-  <si>
-    <t>91,61%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>89,77%</t>
-  </si>
-  <si>
-    <t>86,69%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>35,74%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>41,05%</t>
-  </si>
-  <si>
-    <t>48,53%</t>
-  </si>
-  <si>
-    <t>42,63%</t>
-  </si>
-  <si>
-    <t>54,9%</t>
-  </si>
-  <si>
-    <t>42,25%</t>
-  </si>
-  <si>
-    <t>37,94%</t>
-  </si>
-  <si>
-    <t>46,48%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>51,48%</t>
-  </si>
-  <si>
-    <t>45,51%</t>
-  </si>
-  <si>
-    <t>57,73%</t>
-  </si>
-  <si>
-    <t>47,14%</t>
-  </si>
-  <si>
-    <t>40,93%</t>
-  </si>
-  <si>
-    <t>52,95%</t>
-  </si>
-  <si>
-    <t>49,27%</t>
-  </si>
-  <si>
-    <t>44,91%</t>
-  </si>
-  <si>
-    <t>53,53%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>84,61%</t>
-  </si>
-  <si>
-    <t>81,65%</t>
-  </si>
-  <si>
-    <t>87,29%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
-  </si>
-  <si>
-    <t>86,58%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>86,95%</t>
-  </si>
-  <si>
-    <t>85,04%</t>
-  </si>
-  <si>
-    <t>88,75%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
+    <t>1,62%</t>
   </si>
   <si>
     <t>1,8%</t>
   </si>
   <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>88,05%</t>
-  </si>
-  <si>
-    <t>85,66%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>89,1%</t>
-  </si>
-  <si>
-    <t>86,83%</t>
-  </si>
-  <si>
-    <t>91,21%</t>
-  </si>
-  <si>
-    <t>88,59%</t>
-  </si>
-  <si>
-    <t>86,89%</t>
-  </si>
-  <si>
-    <t>90,08%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
     <t>2,16%</t>
   </si>
   <si>
     <t>2,44%</t>
   </si>
   <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
     <t>1,58%</t>
   </si>
   <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
   </si>
   <si>
     <t>79,54%</t>
   </si>
   <si>
-    <t>81,03%</t>
+    <t>81,01%</t>
   </si>
   <si>
     <t>82,21%</t>
   </si>
   <si>
-    <t>80,71%</t>
-  </si>
-  <si>
-    <t>83,54%</t>
+    <t>80,85%</t>
+  </si>
+  <si>
+    <t>83,5%</t>
   </si>
   <si>
     <t>80,9%</t>
   </si>
   <si>
-    <t>80,0%</t>
-  </si>
-  <si>
-    <t>81,9%</t>
+    <t>79,93%</t>
+  </si>
+  <si>
+    <t>81,84%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1566,7 +1551,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{865B5D6C-8DFB-4EF5-86B4-D8EB93CAD70A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38405D19-9000-473C-923E-AE3F05C90B67}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2052,10 +2037,10 @@
         <v>70</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>5</v>
@@ -2064,13 +2049,13 @@
         <v>4919</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>12</v>
@@ -2079,13 +2064,13 @@
         <v>12128</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2100,13 +2085,13 @@
         <v>9222</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>4</v>
@@ -2115,13 +2100,13 @@
         <v>4313</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>12</v>
@@ -2130,13 +2115,13 @@
         <v>13535</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2157,7 +2142,7 @@
         <v>88</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>89</v>
+        <v>31</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -2166,13 +2151,13 @@
         <v>5033</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="M13" s="7">
         <v>15</v>
@@ -2181,13 +2166,13 @@
         <v>15155</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>44</v>
+        <v>91</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2202,28 +2187,28 @@
         <v>399643</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="H14" s="7">
         <v>397</v>
       </c>
       <c r="I14" s="7">
-        <v>432797</v>
+        <v>432796</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="M14" s="7">
         <v>774</v>
@@ -2232,13 +2217,13 @@
         <v>832439</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2265,7 +2250,7 @@
         <v>482</v>
       </c>
       <c r="I15" s="7">
-        <v>521115</v>
+        <v>521114</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>59</v>
@@ -2294,7 +2279,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2306,13 +2291,13 @@
         <v>61602</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="H16" s="7">
         <v>48</v>
@@ -2321,13 +2306,13 @@
         <v>47944</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M16" s="7">
         <v>113</v>
@@ -2336,13 +2321,13 @@
         <v>109546</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2357,13 +2342,13 @@
         <v>12185</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>23</v>
+        <v>113</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>74</v>
+        <v>114</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H17" s="7">
         <v>14</v>
@@ -2372,13 +2357,13 @@
         <v>14387</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M17" s="7">
         <v>27</v>
@@ -2387,13 +2372,13 @@
         <v>26572</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2408,13 +2393,13 @@
         <v>3661</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H18" s="7">
         <v>6</v>
@@ -2423,13 +2408,13 @@
         <v>6875</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>83</v>
+        <v>125</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>124</v>
+        <v>92</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M18" s="7">
         <v>10</v>
@@ -2438,13 +2423,13 @@
         <v>10536</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2459,13 +2444,13 @@
         <v>6287</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H19" s="7">
         <v>4</v>
@@ -2474,13 +2459,13 @@
         <v>3886</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="M19" s="7">
         <v>11</v>
@@ -2492,10 +2477,10 @@
         <v>133</v>
       </c>
       <c r="P19" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2510,13 +2495,13 @@
         <v>234831</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="H20" s="7">
         <v>260</v>
@@ -2525,13 +2510,13 @@
         <v>263216</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="M20" s="7">
         <v>506</v>
@@ -2540,13 +2525,13 @@
         <v>498047</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2602,7 +2587,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2614,7 +2599,7 @@
         <v>53802</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>15</v>
+        <v>145</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>146</v>
@@ -2734,10 +2719,10 @@
         <v>166</v>
       </c>
       <c r="K24" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="M24" s="7">
         <v>13</v>
@@ -2749,10 +2734,10 @@
         <v>163</v>
       </c>
       <c r="P24" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2767,13 +2752,13 @@
         <v>8109</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="H25" s="7">
         <v>8</v>
@@ -2782,13 +2767,13 @@
         <v>8624</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="M25" s="7">
         <v>16</v>
@@ -2797,13 +2782,13 @@
         <v>16733</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2818,13 +2803,13 @@
         <v>297984</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="H26" s="7">
         <v>296</v>
@@ -2833,13 +2818,13 @@
         <v>322555</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="M26" s="7">
         <v>583</v>
@@ -2848,13 +2833,13 @@
         <v>620539</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2910,7 +2895,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2922,13 +2907,13 @@
         <v>17638</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="H28" s="7">
         <v>12</v>
@@ -2937,10 +2922,10 @@
         <v>11294</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>193</v>
@@ -2973,13 +2958,13 @@
         <v>1967</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="F29" s="7" t="s">
-        <v>155</v>
-      </c>
       <c r="G29" s="7" t="s">
-        <v>198</v>
+        <v>124</v>
       </c>
       <c r="H29" s="7">
         <v>2</v>
@@ -2988,13 +2973,13 @@
         <v>1828</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>155</v>
+        <v>197</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="M29" s="7">
         <v>4</v>
@@ -3003,13 +2988,13 @@
         <v>3794</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3024,13 +3009,13 @@
         <v>2036</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>155</v>
+        <v>197</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H30" s="7">
         <v>1</v>
@@ -3039,13 +3024,13 @@
         <v>868</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>155</v>
+        <v>197</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="M30" s="7">
         <v>3</v>
@@ -3054,13 +3039,13 @@
         <v>2904</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="P30" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3075,10 +3060,10 @@
         <v>5528</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="G31" s="7" t="s">
         <v>210</v>
@@ -3093,7 +3078,7 @@
         <v>211</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="L31" s="7" t="s">
         <v>212</v>
@@ -3111,7 +3096,7 @@
         <v>214</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>37</v>
+        <v>215</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3126,13 +3111,13 @@
         <v>184052</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H32" s="7">
         <v>205</v>
@@ -3141,13 +3126,13 @@
         <v>201776</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M32" s="7">
         <v>390</v>
@@ -3156,13 +3141,13 @@
         <v>385828</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3218,7 +3203,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3230,13 +3215,13 @@
         <v>94028</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H34" s="7">
         <v>126</v>
@@ -3245,13 +3230,13 @@
         <v>132539</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M34" s="7">
         <v>219</v>
@@ -3260,13 +3245,13 @@
         <v>226567</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3281,13 +3266,13 @@
         <v>14161</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H35" s="7">
         <v>5</v>
@@ -3296,13 +3281,13 @@
         <v>4856</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>85</v>
+        <v>239</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="M35" s="7">
         <v>18</v>
@@ -3311,13 +3296,13 @@
         <v>19017</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>206</v>
+        <v>90</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3332,13 +3317,13 @@
         <v>12715</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>242</v>
+        <v>208</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H36" s="7">
         <v>4</v>
@@ -3347,13 +3332,13 @@
         <v>3965</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M36" s="7">
         <v>17</v>
@@ -3362,13 +3347,13 @@
         <v>16680</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3383,13 +3368,13 @@
         <v>6769</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>135</v>
+        <v>250</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>169</v>
+        <v>251</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H37" s="7">
         <v>3</v>
@@ -3398,13 +3383,13 @@
         <v>3000</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>127</v>
+        <v>255</v>
       </c>
       <c r="M37" s="7">
         <v>9</v>
@@ -3413,13 +3398,13 @@
         <v>9768</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>197</v>
+        <v>174</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3434,13 +3419,13 @@
         <v>135450</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="H38" s="7">
         <v>125</v>
@@ -3449,13 +3434,13 @@
         <v>128755</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="M38" s="7">
         <v>259</v>
@@ -3464,13 +3449,13 @@
         <v>264205</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3526,7 +3511,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -3538,13 +3523,13 @@
         <v>62211</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="H40" s="7">
         <v>42</v>
@@ -3553,13 +3538,13 @@
         <v>45246</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="M40" s="7">
         <v>97</v>
@@ -3568,13 +3553,13 @@
         <v>107457</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3589,13 +3574,13 @@
         <v>14086</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>92</v>
+        <v>277</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>212</v>
+        <v>279</v>
       </c>
       <c r="H41" s="7">
         <v>4</v>
@@ -3604,13 +3589,13 @@
         <v>4016</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>274</v>
+        <v>77</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>276</v>
+        <v>44</v>
       </c>
       <c r="M41" s="7">
         <v>17</v>
@@ -3619,13 +3604,13 @@
         <v>18103</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>279</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3640,13 +3625,13 @@
         <v>9799</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>29</v>
+        <v>285</v>
       </c>
       <c r="H42" s="7">
         <v>12</v>
@@ -3655,13 +3640,13 @@
         <v>11597</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>123</v>
+        <v>287</v>
       </c>
       <c r="M42" s="7">
         <v>20</v>
@@ -3670,13 +3655,13 @@
         <v>21395</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>283</v>
+        <v>41</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>160</v>
+        <v>89</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3691,13 +3676,13 @@
         <v>14925</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>285</v>
+        <v>75</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>177</v>
+        <v>289</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="H43" s="7">
         <v>13</v>
@@ -3706,13 +3691,13 @@
         <v>13367</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>162</v>
+        <v>291</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>287</v>
+        <v>251</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="M43" s="7">
         <v>27</v>
@@ -3721,13 +3706,13 @@
         <v>28292</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>289</v>
+        <v>78</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3742,13 +3727,13 @@
         <v>555536</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>293</v>
+        <v>100</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H44" s="7">
         <v>570</v>
@@ -3757,13 +3742,13 @@
         <v>611611</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M44" s="7">
         <v>1060</v>
@@ -3772,13 +3757,13 @@
         <v>1167147</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3834,7 +3819,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -3846,13 +3831,13 @@
         <v>48601</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H46" s="7">
         <v>44</v>
@@ -3861,10 +3846,10 @@
         <v>45649</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>306</v>
+        <v>119</v>
       </c>
       <c r="L46" s="7" t="s">
         <v>307</v>
@@ -3903,7 +3888,7 @@
         <v>312</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>313</v>
+        <v>166</v>
       </c>
       <c r="H47" s="7">
         <v>9</v>
@@ -3912,13 +3897,13 @@
         <v>9676</v>
       </c>
       <c r="J47" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="K47" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="K47" s="7" t="s">
+      <c r="L47" s="7" t="s">
         <v>315</v>
-      </c>
-      <c r="L47" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="M47" s="7">
         <v>17</v>
@@ -3930,10 +3915,10 @@
         <v>316</v>
       </c>
       <c r="P47" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q47" s="7" t="s">
         <v>317</v>
-      </c>
-      <c r="Q47" s="7" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3948,7 +3933,7 @@
         <v>15802</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="F48" s="7" t="s">
         <v>318</v>
@@ -3963,13 +3948,13 @@
         <v>9069</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K48" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="L48" s="7" t="s">
         <v>320</v>
-      </c>
-      <c r="L48" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M48" s="7">
         <v>24</v>
@@ -3999,13 +3984,13 @@
         <v>20763</v>
       </c>
       <c r="E49" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G49" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="F49" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="G49" s="7" t="s">
-        <v>325</v>
       </c>
       <c r="H49" s="7">
         <v>23</v>
@@ -4014,13 +3999,13 @@
         <v>25253</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>162</v>
+        <v>325</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>327</v>
+        <v>304</v>
       </c>
       <c r="M49" s="7">
         <v>42</v>
@@ -4029,13 +4014,13 @@
         <v>46016</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>71</v>
+        <v>326</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>77</v>
+        <v>170</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>328</v>
+        <v>130</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -4050,13 +4035,13 @@
         <v>684702</v>
       </c>
       <c r="E50" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="G50" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="F50" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="G50" s="7" t="s">
-        <v>331</v>
       </c>
       <c r="H50" s="7">
         <v>666</v>
@@ -4065,13 +4050,13 @@
         <v>732614</v>
       </c>
       <c r="J50" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="L50" s="7" t="s">
         <v>332</v>
-      </c>
-      <c r="K50" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="L50" s="7" t="s">
-        <v>334</v>
       </c>
       <c r="M50" s="7">
         <v>1329</v>
@@ -4080,13 +4065,13 @@
         <v>1417316</v>
       </c>
       <c r="O50" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="P50" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q50" s="7" t="s">
         <v>335</v>
-      </c>
-      <c r="P50" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="Q50" s="7" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4154,13 +4139,13 @@
         <v>475255</v>
       </c>
       <c r="E52" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="G52" s="7" t="s">
         <v>338</v>
-      </c>
-      <c r="F52" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="G52" s="7" t="s">
-        <v>340</v>
       </c>
       <c r="H52" s="7">
         <v>438</v>
@@ -4169,13 +4154,13 @@
         <v>455464</v>
       </c>
       <c r="J52" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="K52" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="L52" s="7" t="s">
         <v>341</v>
-      </c>
-      <c r="K52" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="L52" s="7" t="s">
-        <v>343</v>
       </c>
       <c r="M52" s="7">
         <v>893</v>
@@ -4184,13 +4169,13 @@
         <v>930719</v>
       </c>
       <c r="O52" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="P52" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="Q52" s="7" t="s">
         <v>344</v>
-      </c>
-      <c r="P52" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="Q52" s="7" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -4205,13 +4190,13 @@
         <v>64769</v>
       </c>
       <c r="E53" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="F53" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="F53" s="7" t="s">
-        <v>347</v>
-      </c>
       <c r="G53" s="7" t="s">
-        <v>348</v>
+        <v>93</v>
       </c>
       <c r="H53" s="7">
         <v>48</v>
@@ -4220,13 +4205,13 @@
         <v>48260</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>321</v>
+        <v>214</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="M53" s="7">
         <v>111</v>
@@ -4235,13 +4220,13 @@
         <v>113029</v>
       </c>
       <c r="O53" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="P53" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q53" s="7" t="s">
         <v>351</v>
-      </c>
-      <c r="P53" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q53" s="7" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -4256,13 +4241,13 @@
         <v>70897</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>156</v>
+        <v>47</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>355</v>
+        <v>208</v>
       </c>
       <c r="H54" s="7">
         <v>53</v>
@@ -4274,10 +4259,10 @@
         <v>21</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>128</v>
+        <v>351</v>
       </c>
       <c r="M54" s="7">
         <v>119</v>
@@ -4286,13 +4271,13 @@
         <v>124669</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>313</v>
+        <v>353</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>276</v>
+        <v>346</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -4307,13 +4292,13 @@
         <v>82669</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>358</v>
+        <v>29</v>
       </c>
       <c r="H55" s="7">
         <v>67</v>
@@ -4322,13 +4307,13 @@
         <v>71177</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>359</v>
+        <v>114</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="M55" s="7">
         <v>145</v>
@@ -4337,13 +4322,13 @@
         <v>153846</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>362</v>
+        <v>200</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -4358,28 +4343,28 @@
         <v>2697129</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>55</v>
+        <v>137</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="H56" s="7">
         <v>2721</v>
       </c>
       <c r="I56" s="7">
-        <v>2904535</v>
+        <v>2904536</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="M56" s="7">
         <v>5287</v>
@@ -4388,13 +4373,13 @@
         <v>5601664</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4421,7 +4406,7 @@
         <v>3327</v>
       </c>
       <c r="I57" s="7">
-        <v>3533208</v>
+        <v>3533209</v>
       </c>
       <c r="J57" s="7" t="s">
         <v>59</v>
@@ -4450,7 +4435,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36B01-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P36B01-Provincia-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{26A6CC66-BFA7-46B7-AB2C-AE280E5F5C76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CEEEDAF3-7AE6-4211-8427-E79376AFAB9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9195C676-DDA0-4F9F-886D-074AAE583B58}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B44AFB91-7684-479F-8EDA-AB1B860AA9B6}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="368">
-  <si>
-    <t>Población según la frecuencia de consumo de café o té en 2015 (Tasa respuesta: 99,79%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="377">
+  <si>
+    <t>Población según la frecuencia de consumo de café o té en 2016 (Tasa respuesta: 99,79%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -74,28 +74,28 @@
     <t>21,42%</t>
   </si>
   <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
     <t>16,79%</t>
   </si>
   <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
+    <t>23,53%</t>
   </si>
   <si>
     <t>Menos de 1 vez semana</t>
@@ -104,1039 +104,1066 @@
     <t>1,52%</t>
   </si>
   <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
     <t>0,32%</t>
   </si>
   <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>Una/dos veces a la semana</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>Tres o más veces a la semana</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>A diario</t>
+  </si>
+  <si>
+    <t>69,99%</t>
+  </si>
+  <si>
+    <t>63,97%</t>
+  </si>
+  <si>
+    <t>74,99%</t>
+  </si>
+  <si>
+    <t>73,16%</t>
+  </si>
+  <si>
+    <t>67,55%</t>
+  </si>
+  <si>
+    <t>78,19%</t>
+  </si>
+  <si>
+    <t>71,56%</t>
+  </si>
+  <si>
+    <t>67,5%</t>
+  </si>
+  <si>
+    <t>75,3%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
   </si>
   <si>
     <t>0,37%</t>
   </si>
   <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>79,79%</t>
+  </si>
+  <si>
+    <t>76,11%</t>
+  </si>
+  <si>
+    <t>83,21%</t>
+  </si>
+  <si>
+    <t>83,05%</t>
+  </si>
+  <si>
+    <t>79,56%</t>
+  </si>
+  <si>
+    <t>86,2%</t>
+  </si>
+  <si>
+    <t>81,46%</t>
+  </si>
+  <si>
+    <t>78,95%</t>
+  </si>
+  <si>
+    <t>83,63%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>73,72%</t>
+  </si>
+  <si>
+    <t>68,47%</t>
+  </si>
+  <si>
+    <t>78,02%</t>
+  </si>
+  <si>
+    <t>78,27%</t>
+  </si>
+  <si>
+    <t>73,14%</t>
+  </si>
+  <si>
+    <t>82,52%</t>
+  </si>
+  <si>
+    <t>76,05%</t>
+  </si>
+  <si>
+    <t>72,72%</t>
+  </si>
+  <si>
+    <t>79,37%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>80,54%</t>
+  </si>
+  <si>
+    <t>76,44%</t>
+  </si>
+  <si>
+    <t>84,55%</t>
+  </si>
+  <si>
+    <t>83,29%</t>
+  </si>
+  <si>
+    <t>79,04%</t>
+  </si>
+  <si>
+    <t>86,91%</t>
+  </si>
+  <si>
+    <t>81,95%</t>
+  </si>
+  <si>
+    <t>79,13%</t>
+  </si>
+  <si>
+    <t>84,88%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
     <t>3,37%</t>
   </si>
   <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>Una/dos veces a la semana</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
   </si>
   <si>
     <t>2,14%</t>
   </si>
   <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>Tres o más veces a la semana</t>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>87,14%</t>
+  </si>
+  <si>
+    <t>82,23%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>88,04%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>89,77%</t>
+  </si>
+  <si>
+    <t>86,81%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>35,74%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
+  </si>
+  <si>
+    <t>42,11%</t>
+  </si>
+  <si>
+    <t>48,53%</t>
+  </si>
+  <si>
+    <t>42,51%</t>
+  </si>
+  <si>
+    <t>54,64%</t>
+  </si>
+  <si>
+    <t>42,25%</t>
+  </si>
+  <si>
+    <t>37,97%</t>
+  </si>
+  <si>
+    <t>46,56%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>51,48%</t>
+  </si>
+  <si>
+    <t>45,33%</t>
+  </si>
+  <si>
+    <t>57,81%</t>
+  </si>
+  <si>
+    <t>47,14%</t>
+  </si>
+  <si>
+    <t>41,18%</t>
+  </si>
+  <si>
+    <t>53,39%</t>
+  </si>
+  <si>
+    <t>49,27%</t>
+  </si>
+  <si>
+    <t>44,71%</t>
+  </si>
+  <si>
+    <t>53,45%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
   </si>
   <si>
     <t>1,59%</t>
   </si>
   <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>A diario</t>
-  </si>
-  <si>
-    <t>69,99%</t>
-  </si>
-  <si>
-    <t>64,11%</t>
-  </si>
-  <si>
-    <t>75,4%</t>
-  </si>
-  <si>
-    <t>73,16%</t>
-  </si>
-  <si>
-    <t>67,47%</t>
-  </si>
-  <si>
-    <t>78,25%</t>
-  </si>
-  <si>
-    <t>71,56%</t>
-  </si>
-  <si>
-    <t>67,45%</t>
-  </si>
-  <si>
-    <t>75,23%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>84,61%</t>
+  </si>
+  <si>
+    <t>81,49%</t>
+  </si>
+  <si>
+    <t>87,48%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>91,3%</t>
+  </si>
+  <si>
+    <t>86,95%</t>
+  </si>
+  <si>
+    <t>85,1%</t>
+  </si>
+  <si>
+    <t>88,87%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
   </si>
   <si>
     <t>0,6%</t>
   </si>
   <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
   </si>
   <si>
     <t>2,03%</t>
   </si>
   <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>88,05%</t>
+  </si>
+  <si>
+    <t>85,54%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>89,1%</t>
+  </si>
+  <si>
+    <t>86,93%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
+  </si>
+  <si>
+    <t>88,59%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>90,18%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
   </si>
   <si>
     <t>2,46%</t>
   </si>
   <si>
-    <t>79,79%</t>
-  </si>
-  <si>
-    <t>76,07%</t>
-  </si>
-  <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>83,05%</t>
-  </si>
-  <si>
-    <t>79,88%</t>
-  </si>
-  <si>
-    <t>86,31%</t>
-  </si>
-  <si>
-    <t>81,46%</t>
-  </si>
-  <si>
-    <t>78,73%</t>
-  </si>
-  <si>
-    <t>83,9%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>73,72%</t>
-  </si>
-  <si>
-    <t>68,83%</t>
-  </si>
-  <si>
-    <t>78,11%</t>
-  </si>
-  <si>
-    <t>78,27%</t>
-  </si>
-  <si>
-    <t>73,48%</t>
-  </si>
-  <si>
-    <t>82,34%</t>
-  </si>
-  <si>
-    <t>76,05%</t>
-  </si>
-  <si>
-    <t>72,93%</t>
-  </si>
-  <si>
-    <t>79,2%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>80,54%</t>
-  </si>
-  <si>
-    <t>75,93%</t>
-  </si>
-  <si>
-    <t>84,48%</t>
-  </si>
-  <si>
-    <t>83,29%</t>
-  </si>
-  <si>
-    <t>79,02%</t>
-  </si>
-  <si>
-    <t>86,92%</t>
-  </si>
-  <si>
-    <t>81,95%</t>
-  </si>
-  <si>
-    <t>78,68%</t>
-  </si>
-  <si>
-    <t>84,73%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
   </si>
   <si>
     <t>2,22%</t>
   </si>
   <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>87,14%</t>
-  </si>
-  <si>
-    <t>81,66%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>88,55%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>89,77%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>35,74%</t>
-  </si>
-  <si>
-    <t>30,4%</t>
-  </si>
-  <si>
-    <t>41,64%</t>
-  </si>
-  <si>
-    <t>48,53%</t>
-  </si>
-  <si>
-    <t>42,44%</t>
-  </si>
-  <si>
-    <t>54,53%</t>
-  </si>
-  <si>
-    <t>42,25%</t>
-  </si>
-  <si>
-    <t>38,2%</t>
-  </si>
-  <si>
-    <t>46,62%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>51,48%</t>
-  </si>
-  <si>
-    <t>45,45%</t>
-  </si>
-  <si>
-    <t>57,62%</t>
-  </si>
-  <si>
-    <t>47,14%</t>
-  </si>
-  <si>
-    <t>41,0%</t>
-  </si>
-  <si>
-    <t>53,05%</t>
-  </si>
-  <si>
-    <t>49,27%</t>
-  </si>
-  <si>
-    <t>45,17%</t>
-  </si>
-  <si>
-    <t>53,73%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>84,61%</t>
-  </si>
-  <si>
-    <t>87,45%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
-  </si>
-  <si>
-    <t>86,8%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>86,95%</t>
-  </si>
-  <si>
-    <t>84,98%</t>
-  </si>
-  <si>
-    <t>88,72%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>88,05%</t>
-  </si>
-  <si>
-    <t>85,42%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
-  </si>
-  <si>
-    <t>89,1%</t>
-  </si>
-  <si>
-    <t>86,89%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>88,59%</t>
-  </si>
-  <si>
-    <t>86,93%</t>
-  </si>
-  <si>
-    <t>90,2%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
     <t>1,89%</t>
   </si>
   <si>
+    <t>2,59%</t>
+  </si>
+  <si>
     <t>79,54%</t>
   </si>
   <si>
-    <t>81,01%</t>
+    <t>78,04%</t>
+  </si>
+  <si>
+    <t>80,86%</t>
   </si>
   <si>
     <t>82,21%</t>
   </si>
   <si>
-    <t>80,85%</t>
+    <t>80,9%</t>
   </si>
   <si>
     <t>83,5%</t>
   </si>
   <si>
-    <t>80,9%</t>
-  </si>
-  <si>
-    <t>79,93%</t>
-  </si>
-  <si>
-    <t>81,84%</t>
+    <t>79,95%</t>
+  </si>
+  <si>
+    <t>81,88%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1551,7 +1578,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38405D19-9000-473C-923E-AE3F05C90B67}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC862F97-7B86-4528-92C9-03B9CB21AAC0}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1831,10 +1858,10 @@
         <v>37</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="H7" s="7">
         <v>8</v>
@@ -1843,13 +1870,13 @@
         <v>9192</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="M7" s="7">
         <v>17</v>
@@ -1858,19 +1885,19 @@
         <v>19359</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C8" s="7">
         <v>184</v>
@@ -1879,13 +1906,13 @@
         <v>204931</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="H8" s="7">
         <v>202</v>
@@ -1894,13 +1921,13 @@
         <v>211212</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="M8" s="7">
         <v>386</v>
@@ -1909,13 +1936,13 @@
         <v>416143</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1930,13 +1957,13 @@
         <v>292815</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H9" s="7">
         <v>277</v>
@@ -1945,13 +1972,13 @@
         <v>288703</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M9" s="7">
         <v>542</v>
@@ -1960,18 +1987,18 @@
         <v>581518</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1983,13 +2010,13 @@
         <v>74644</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="H10" s="7">
         <v>71</v>
@@ -1998,13 +2025,13 @@
         <v>74053</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="M10" s="7">
         <v>143</v>
@@ -2013,13 +2040,13 @@
         <v>148697</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2034,13 +2061,13 @@
         <v>7209</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>5</v>
@@ -2049,13 +2076,13 @@
         <v>4919</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>12</v>
@@ -2064,13 +2091,13 @@
         <v>12128</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2085,13 +2112,13 @@
         <v>9222</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>4</v>
@@ -2100,13 +2127,13 @@
         <v>4313</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>12</v>
@@ -2115,13 +2142,13 @@
         <v>13535</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2136,13 +2163,13 @@
         <v>10121</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -2154,10 +2181,10 @@
         <v>89</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M13" s="7">
         <v>15</v>
@@ -2166,19 +2193,19 @@
         <v>15155</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C14" s="7">
         <v>377</v>
@@ -2187,13 +2214,13 @@
         <v>399643</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H14" s="7">
         <v>397</v>
@@ -2202,13 +2229,13 @@
         <v>432796</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M14" s="7">
         <v>774</v>
@@ -2217,13 +2244,13 @@
         <v>832439</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2238,13 +2265,13 @@
         <v>500840</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H15" s="7">
         <v>482</v>
@@ -2253,13 +2280,13 @@
         <v>521114</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M15" s="7">
         <v>956</v>
@@ -2268,18 +2295,18 @@
         <v>1021954</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2291,13 +2318,13 @@
         <v>61602</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H16" s="7">
         <v>48</v>
@@ -2306,13 +2333,13 @@
         <v>47944</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M16" s="7">
         <v>113</v>
@@ -2321,13 +2348,13 @@
         <v>109546</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2342,13 +2369,13 @@
         <v>12185</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H17" s="7">
         <v>14</v>
@@ -2357,13 +2384,13 @@
         <v>14387</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M17" s="7">
         <v>27</v>
@@ -2372,13 +2399,13 @@
         <v>26572</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2393,13 +2420,13 @@
         <v>3661</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H18" s="7">
         <v>6</v>
@@ -2408,13 +2435,13 @@
         <v>6875</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M18" s="7">
         <v>10</v>
@@ -2423,13 +2450,13 @@
         <v>10536</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>82</v>
+        <v>129</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>128</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2444,13 +2471,13 @@
         <v>6287</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H19" s="7">
         <v>4</v>
@@ -2459,13 +2486,13 @@
         <v>3886</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="M19" s="7">
         <v>11</v>
@@ -2474,19 +2501,19 @@
         <v>10173</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C20" s="7">
         <v>246</v>
@@ -2495,13 +2522,13 @@
         <v>234831</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H20" s="7">
         <v>260</v>
@@ -2510,13 +2537,13 @@
         <v>263216</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="M20" s="7">
         <v>506</v>
@@ -2525,13 +2552,13 @@
         <v>498047</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2546,13 +2573,13 @@
         <v>318565</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H21" s="7">
         <v>332</v>
@@ -2561,13 +2588,13 @@
         <v>336309</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M21" s="7">
         <v>667</v>
@@ -2576,18 +2603,18 @@
         <v>654874</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2599,13 +2626,13 @@
         <v>53802</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="H22" s="7">
         <v>42</v>
@@ -2614,13 +2641,13 @@
         <v>43908</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="M22" s="7">
         <v>92</v>
@@ -2629,13 +2656,13 @@
         <v>97711</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2650,13 +2677,13 @@
         <v>2937</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>156</v>
+        <v>38</v>
       </c>
       <c r="H23" s="7">
         <v>5</v>
@@ -2665,13 +2692,13 @@
         <v>4747</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>159</v>
+        <v>118</v>
       </c>
       <c r="M23" s="7">
         <v>8</v>
@@ -2680,13 +2707,13 @@
         <v>7684</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2701,10 +2728,10 @@
         <v>7131</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>164</v>
+        <v>28</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>165</v>
@@ -2719,10 +2746,10 @@
         <v>166</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M24" s="7">
         <v>13</v>
@@ -2731,10 +2758,10 @@
         <v>14580</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>168</v>
+        <v>87</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>169</v>
@@ -2752,13 +2779,13 @@
         <v>8109</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="H25" s="7">
         <v>8</v>
@@ -2767,13 +2794,13 @@
         <v>8624</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="M25" s="7">
         <v>16</v>
@@ -2782,7 +2809,7 @@
         <v>16733</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>90</v>
+        <v>175</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>176</v>
@@ -2794,7 +2821,7 @@
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C26" s="7">
         <v>287</v>
@@ -2854,13 +2881,13 @@
         <v>369964</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H27" s="7">
         <v>358</v>
@@ -2869,13 +2896,13 @@
         <v>387283</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M27" s="7">
         <v>712</v>
@@ -2884,13 +2911,13 @@
         <v>757247</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2958,13 +2985,13 @@
         <v>1967</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>174</v>
+        <v>197</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>124</v>
+        <v>199</v>
       </c>
       <c r="H29" s="7">
         <v>2</v>
@@ -2973,13 +3000,13 @@
         <v>1828</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>198</v>
+        <v>70</v>
       </c>
       <c r="M29" s="7">
         <v>4</v>
@@ -2988,13 +3015,13 @@
         <v>3794</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3009,13 +3036,13 @@
         <v>2036</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="H30" s="7">
         <v>1</v>
@@ -3024,13 +3051,13 @@
         <v>868</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="M30" s="7">
         <v>3</v>
@@ -3039,13 +3066,13 @@
         <v>2904</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>205</v>
+        <v>75</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3060,13 +3087,13 @@
         <v>5528</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H31" s="7">
         <v>3</v>
@@ -3075,13 +3102,13 @@
         <v>2821</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="M31" s="7">
         <v>8</v>
@@ -3090,19 +3117,19 @@
         <v>8350</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C32" s="7">
         <v>185</v>
@@ -3111,13 +3138,13 @@
         <v>184052</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="H32" s="7">
         <v>205</v>
@@ -3126,13 +3153,13 @@
         <v>201776</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="M32" s="7">
         <v>390</v>
@@ -3141,13 +3168,13 @@
         <v>385828</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3162,13 +3189,13 @@
         <v>211221</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H33" s="7">
         <v>223</v>
@@ -3177,13 +3204,13 @@
         <v>218587</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M33" s="7">
         <v>435</v>
@@ -3192,18 +3219,18 @@
         <v>429808</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3215,13 +3242,13 @@
         <v>94028</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="H34" s="7">
         <v>126</v>
@@ -3230,13 +3257,13 @@
         <v>132539</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="M34" s="7">
         <v>219</v>
@@ -3245,13 +3272,13 @@
         <v>226567</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3266,13 +3293,13 @@
         <v>14161</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H35" s="7">
         <v>5</v>
@@ -3281,13 +3308,13 @@
         <v>4856</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="M35" s="7">
         <v>18</v>
@@ -3296,13 +3323,13 @@
         <v>19017</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>90</v>
+        <v>244</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3317,13 +3344,13 @@
         <v>12715</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>208</v>
+        <v>247</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="H36" s="7">
         <v>4</v>
@@ -3332,13 +3359,13 @@
         <v>3965</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="M36" s="7">
         <v>17</v>
@@ -3347,13 +3374,13 @@
         <v>16680</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>249</v>
+        <v>77</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3368,13 +3395,13 @@
         <v>6769</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="H37" s="7">
         <v>3</v>
@@ -3383,13 +3410,13 @@
         <v>3000</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="M37" s="7">
         <v>9</v>
@@ -3398,19 +3425,19 @@
         <v>9768</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>257</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C38" s="7">
         <v>134</v>
@@ -3419,13 +3446,13 @@
         <v>135450</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="H38" s="7">
         <v>125</v>
@@ -3434,13 +3461,13 @@
         <v>128755</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="M38" s="7">
         <v>259</v>
@@ -3449,13 +3476,13 @@
         <v>264205</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3470,13 +3497,13 @@
         <v>263123</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H39" s="7">
         <v>263</v>
@@ -3485,13 +3512,13 @@
         <v>273115</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M39" s="7">
         <v>522</v>
@@ -3500,18 +3527,18 @@
         <v>536238</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -3523,13 +3550,13 @@
         <v>62211</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="H40" s="7">
         <v>42</v>
@@ -3538,13 +3565,13 @@
         <v>45246</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="M40" s="7">
         <v>97</v>
@@ -3553,13 +3580,13 @@
         <v>107457</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3574,13 +3601,13 @@
         <v>14086</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>277</v>
+        <v>244</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="H41" s="7">
         <v>4</v>
@@ -3589,13 +3616,13 @@
         <v>4016</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>77</v>
+        <v>282</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>44</v>
+        <v>284</v>
       </c>
       <c r="M41" s="7">
         <v>17</v>
@@ -3604,13 +3631,13 @@
         <v>18103</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>38</v>
+        <v>287</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3625,13 +3652,13 @@
         <v>9799</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>285</v>
+        <v>134</v>
       </c>
       <c r="H42" s="7">
         <v>12</v>
@@ -3640,13 +3667,13 @@
         <v>11597</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>209</v>
+        <v>291</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="M42" s="7">
         <v>20</v>
@@ -3655,13 +3682,13 @@
         <v>21395</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>41</v>
+        <v>293</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>89</v>
+        <v>294</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3676,13 +3703,13 @@
         <v>14925</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>75</v>
+        <v>296</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="H43" s="7">
         <v>13</v>
@@ -3691,13 +3718,13 @@
         <v>13367</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>251</v>
+        <v>299</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>292</v>
+        <v>177</v>
       </c>
       <c r="M43" s="7">
         <v>27</v>
@@ -3706,19 +3733,19 @@
         <v>28292</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>78</v>
+        <v>287</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>285</v>
+        <v>301</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C44" s="7">
         <v>490</v>
@@ -3727,13 +3754,13 @@
         <v>555536</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>100</v>
+        <v>303</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="H44" s="7">
         <v>570</v>
@@ -3742,13 +3769,13 @@
         <v>611611</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="M44" s="7">
         <v>1060</v>
@@ -3757,13 +3784,13 @@
         <v>1167147</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3778,13 +3805,13 @@
         <v>656558</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H45" s="7">
         <v>641</v>
@@ -3793,13 +3820,13 @@
         <v>685837</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M45" s="7">
         <v>1221</v>
@@ -3808,18 +3835,18 @@
         <v>1342395</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -3831,13 +3858,13 @@
         <v>48601</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>303</v>
+        <v>33</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="H46" s="7">
         <v>44</v>
@@ -3846,13 +3873,13 @@
         <v>45649</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>119</v>
+        <v>315</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="M46" s="7">
         <v>88</v>
@@ -3861,13 +3888,13 @@
         <v>94250</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>309</v>
+        <v>253</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3882,13 +3909,13 @@
         <v>7764</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>166</v>
+        <v>321</v>
       </c>
       <c r="H47" s="7">
         <v>9</v>
@@ -3897,13 +3924,13 @@
         <v>9676</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="M47" s="7">
         <v>17</v>
@@ -3912,13 +3939,13 @@
         <v>17439</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>205</v>
+        <v>326</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3933,13 +3960,13 @@
         <v>15802</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>84</v>
+        <v>328</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>318</v>
+        <v>123</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>319</v>
+        <v>204</v>
       </c>
       <c r="H48" s="7">
         <v>9</v>
@@ -3948,13 +3975,13 @@
         <v>9069</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="M48" s="7">
         <v>24</v>
@@ -3963,13 +3990,13 @@
         <v>24871</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>321</v>
+        <v>255</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>322</v>
+        <v>172</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -3984,13 +4011,13 @@
         <v>20763</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>134</v>
+        <v>330</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>127</v>
+        <v>331</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="H49" s="7">
         <v>23</v>
@@ -3999,13 +4026,13 @@
         <v>25253</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>325</v>
+        <v>76</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>304</v>
+        <v>334</v>
       </c>
       <c r="M49" s="7">
         <v>42</v>
@@ -4014,19 +4041,19 @@
         <v>46016</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>170</v>
+        <v>336</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>130</v>
+        <v>337</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C50" s="7">
         <v>663</v>
@@ -4035,13 +4062,13 @@
         <v>684702</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>328</v>
+        <v>339</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>329</v>
+        <v>340</v>
       </c>
       <c r="H50" s="7">
         <v>666</v>
@@ -4050,13 +4077,13 @@
         <v>732614</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
       <c r="M50" s="7">
         <v>1329</v>
@@ -4065,13 +4092,13 @@
         <v>1417316</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>333</v>
+        <v>344</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4086,13 +4113,13 @@
         <v>777632</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H51" s="7">
         <v>751</v>
@@ -4101,13 +4128,13 @@
         <v>822260</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M51" s="7">
         <v>1500</v>
@@ -4116,13 +4143,13 @@
         <v>1599892</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -4139,13 +4166,13 @@
         <v>475255</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>336</v>
+        <v>347</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>337</v>
+        <v>348</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>338</v>
+        <v>349</v>
       </c>
       <c r="H52" s="7">
         <v>438</v>
@@ -4154,13 +4181,13 @@
         <v>455464</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>340</v>
+        <v>351</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>341</v>
+        <v>352</v>
       </c>
       <c r="M52" s="7">
         <v>893</v>
@@ -4169,13 +4196,13 @@
         <v>930719</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>342</v>
+        <v>353</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>343</v>
+        <v>354</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>344</v>
+        <v>355</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -4190,13 +4217,13 @@
         <v>64769</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>345</v>
+        <v>163</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>346</v>
+        <v>92</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>93</v>
+        <v>356</v>
       </c>
       <c r="H53" s="7">
         <v>48</v>
@@ -4205,13 +4232,13 @@
         <v>48260</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>347</v>
+        <v>357</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>214</v>
+        <v>294</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>348</v>
+        <v>260</v>
       </c>
       <c r="M53" s="7">
         <v>111</v>
@@ -4220,13 +4247,13 @@
         <v>113029</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>349</v>
+        <v>331</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>350</v>
+        <v>24</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>351</v>
+        <v>215</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -4241,13 +4268,13 @@
         <v>70897</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>352</v>
+        <v>331</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>208</v>
+        <v>358</v>
       </c>
       <c r="H54" s="7">
         <v>53</v>
@@ -4259,10 +4286,10 @@
         <v>21</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>131</v>
+        <v>322</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="M54" s="7">
         <v>119</v>
@@ -4271,13 +4298,13 @@
         <v>124669</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>346</v>
+        <v>288</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>354</v>
+        <v>244</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -4292,13 +4319,13 @@
         <v>82669</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>129</v>
+        <v>164</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>29</v>
+        <v>362</v>
       </c>
       <c r="H55" s="7">
         <v>67</v>
@@ -4307,13 +4334,13 @@
         <v>71177</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>114</v>
+        <v>202</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="M55" s="7">
         <v>145</v>
@@ -4322,19 +4349,19 @@
         <v>153846</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>200</v>
+        <v>365</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>208</v>
+        <v>367</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C56" s="7">
         <v>2566</v>
@@ -4343,28 +4370,28 @@
         <v>2697129</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>137</v>
+        <v>369</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="H56" s="7">
         <v>2721</v>
       </c>
       <c r="I56" s="7">
-        <v>2904536</v>
+        <v>2904535</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="M56" s="7">
         <v>5287</v>
@@ -4373,13 +4400,13 @@
         <v>5601664</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4394,28 +4421,28 @@
         <v>3390718</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H57" s="7">
         <v>3327</v>
       </c>
       <c r="I57" s="7">
-        <v>3533209</v>
+        <v>3533208</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M57" s="7">
         <v>6555</v>
@@ -4424,18 +4451,18 @@
         <v>6923926</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36B01-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P36B01-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CEEEDAF3-7AE6-4211-8427-E79376AFAB9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{54F6AED3-CE40-4F83-9540-DBC8F2E61B2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B44AFB91-7684-479F-8EDA-AB1B860AA9B6}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1D982852-9438-4A47-9871-CFAA2684ED3A}"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="373">
   <si>
     <t>Población según la frecuencia de consumo de café o té en 2016 (Tasa respuesta: 99,79%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>21,42%</t>
   </si>
   <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
   </si>
   <si>
     <t>18,99%</t>
   </si>
   <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
   </si>
   <si>
     <t>20,22%</t>
   </si>
   <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
   </si>
   <si>
     <t>Menos de 1 vez semana</t>
@@ -104,10 +104,10 @@
     <t>1,52%</t>
   </si>
   <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
   </si>
   <si>
     <t>1,33%</t>
@@ -116,1054 +116,1042 @@
     <t>0,32%</t>
   </si>
   <si>
-    <t>3,05%</t>
+    <t>3,16%</t>
   </si>
   <si>
     <t>1,43%</t>
   </si>
   <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>Una/dos veces a la semana</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>Tres o más veces a la semana</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>A diario</t>
+  </si>
+  <si>
+    <t>69,99%</t>
+  </si>
+  <si>
+    <t>64,54%</t>
+  </si>
+  <si>
+    <t>75,36%</t>
+  </si>
+  <si>
+    <t>73,16%</t>
+  </si>
+  <si>
+    <t>68,06%</t>
+  </si>
+  <si>
+    <t>78,22%</t>
+  </si>
+  <si>
+    <t>71,56%</t>
+  </si>
+  <si>
+    <t>67,34%</t>
+  </si>
+  <si>
+    <t>75,0%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>79,79%</t>
+  </si>
+  <si>
+    <t>75,77%</t>
+  </si>
+  <si>
+    <t>83,1%</t>
+  </si>
+  <si>
+    <t>83,05%</t>
+  </si>
+  <si>
+    <t>79,78%</t>
+  </si>
+  <si>
+    <t>85,97%</t>
+  </si>
+  <si>
+    <t>81,46%</t>
+  </si>
+  <si>
+    <t>78,81%</t>
+  </si>
+  <si>
+    <t>83,69%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>73,72%</t>
+  </si>
+  <si>
+    <t>68,43%</t>
+  </si>
+  <si>
+    <t>77,95%</t>
+  </si>
+  <si>
+    <t>78,27%</t>
+  </si>
+  <si>
+    <t>73,25%</t>
+  </si>
+  <si>
+    <t>82,47%</t>
+  </si>
+  <si>
+    <t>76,05%</t>
+  </si>
+  <si>
+    <t>72,43%</t>
+  </si>
+  <si>
+    <t>79,1%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>80,54%</t>
+  </si>
+  <si>
+    <t>76,27%</t>
+  </si>
+  <si>
+    <t>84,71%</t>
+  </si>
+  <si>
+    <t>83,29%</t>
+  </si>
+  <si>
+    <t>79,26%</t>
+  </si>
+  <si>
+    <t>86,97%</t>
+  </si>
+  <si>
+    <t>81,95%</t>
+  </si>
+  <si>
+    <t>78,97%</t>
+  </si>
+  <si>
+    <t>84,66%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>87,14%</t>
+  </si>
+  <si>
+    <t>82,27%</t>
+  </si>
+  <si>
+    <t>91,61%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>89,77%</t>
+  </si>
+  <si>
+    <t>86,69%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>35,74%</t>
+  </si>
+  <si>
+    <t>29,84%</t>
+  </si>
+  <si>
+    <t>41,05%</t>
+  </si>
+  <si>
+    <t>48,53%</t>
+  </si>
+  <si>
+    <t>42,63%</t>
+  </si>
+  <si>
+    <t>54,9%</t>
+  </si>
+  <si>
+    <t>42,25%</t>
+  </si>
+  <si>
+    <t>37,94%</t>
+  </si>
+  <si>
+    <t>46,48%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>51,48%</t>
+  </si>
+  <si>
+    <t>45,51%</t>
+  </si>
+  <si>
+    <t>57,73%</t>
+  </si>
+  <si>
+    <t>47,14%</t>
+  </si>
+  <si>
+    <t>40,93%</t>
+  </si>
+  <si>
+    <t>52,95%</t>
+  </si>
+  <si>
+    <t>49,27%</t>
+  </si>
+  <si>
+    <t>44,91%</t>
+  </si>
+  <si>
+    <t>53,53%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>84,61%</t>
+  </si>
+  <si>
+    <t>81,65%</t>
+  </si>
+  <si>
+    <t>87,29%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>86,58%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>86,95%</t>
+  </si>
+  <si>
+    <t>85,04%</t>
+  </si>
+  <si>
+    <t>88,75%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
     <t>0,65%</t>
   </si>
   <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>Una/dos veces a la semana</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>Tres o más veces a la semana</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>A diario</t>
-  </si>
-  <si>
-    <t>69,99%</t>
-  </si>
-  <si>
-    <t>63,97%</t>
-  </si>
-  <si>
-    <t>74,99%</t>
-  </si>
-  <si>
-    <t>73,16%</t>
-  </si>
-  <si>
-    <t>67,55%</t>
-  </si>
-  <si>
-    <t>78,19%</t>
-  </si>
-  <si>
-    <t>71,56%</t>
-  </si>
-  <si>
-    <t>67,5%</t>
-  </si>
-  <si>
-    <t>75,3%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>88,05%</t>
+  </si>
+  <si>
+    <t>85,66%</t>
+  </si>
+  <si>
+    <t>90,41%</t>
+  </si>
+  <si>
+    <t>89,1%</t>
+  </si>
+  <si>
+    <t>86,83%</t>
+  </si>
+  <si>
+    <t>91,21%</t>
+  </si>
+  <si>
+    <t>88,59%</t>
+  </si>
+  <si>
+    <t>86,89%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
   </si>
   <si>
     <t>1,99%</t>
   </si>
   <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>79,79%</t>
-  </si>
-  <si>
-    <t>76,11%</t>
-  </si>
-  <si>
-    <t>83,21%</t>
-  </si>
-  <si>
-    <t>83,05%</t>
-  </si>
-  <si>
-    <t>79,56%</t>
-  </si>
-  <si>
-    <t>86,2%</t>
-  </si>
-  <si>
-    <t>81,46%</t>
-  </si>
-  <si>
-    <t>78,95%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>73,72%</t>
-  </si>
-  <si>
-    <t>68,47%</t>
-  </si>
-  <si>
-    <t>78,02%</t>
-  </si>
-  <si>
-    <t>78,27%</t>
-  </si>
-  <si>
-    <t>73,14%</t>
-  </si>
-  <si>
-    <t>82,52%</t>
-  </si>
-  <si>
-    <t>76,05%</t>
-  </si>
-  <si>
-    <t>72,72%</t>
-  </si>
-  <si>
-    <t>79,37%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>80,54%</t>
-  </si>
-  <si>
-    <t>76,44%</t>
-  </si>
-  <si>
-    <t>84,55%</t>
-  </si>
-  <si>
-    <t>83,29%</t>
-  </si>
-  <si>
-    <t>79,04%</t>
-  </si>
-  <si>
-    <t>86,91%</t>
-  </si>
-  <si>
-    <t>81,95%</t>
-  </si>
-  <si>
-    <t>79,13%</t>
-  </si>
-  <si>
-    <t>84,88%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
   </si>
   <si>
     <t>2,01%</t>
   </si>
   <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>87,14%</t>
-  </si>
-  <si>
-    <t>82,23%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>88,04%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>89,77%</t>
-  </si>
-  <si>
-    <t>86,81%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>35,74%</t>
-  </si>
-  <si>
-    <t>30,06%</t>
-  </si>
-  <si>
-    <t>42,11%</t>
-  </si>
-  <si>
-    <t>48,53%</t>
-  </si>
-  <si>
-    <t>42,51%</t>
-  </si>
-  <si>
-    <t>54,64%</t>
-  </si>
-  <si>
-    <t>42,25%</t>
-  </si>
-  <si>
-    <t>37,97%</t>
-  </si>
-  <si>
-    <t>46,56%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>51,48%</t>
-  </si>
-  <si>
-    <t>45,33%</t>
-  </si>
-  <si>
-    <t>57,81%</t>
-  </si>
-  <si>
-    <t>47,14%</t>
-  </si>
-  <si>
-    <t>41,18%</t>
-  </si>
-  <si>
-    <t>53,39%</t>
-  </si>
-  <si>
-    <t>49,27%</t>
-  </si>
-  <si>
-    <t>44,71%</t>
-  </si>
-  <si>
-    <t>53,45%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>84,61%</t>
-  </si>
-  <si>
-    <t>81,49%</t>
-  </si>
-  <si>
-    <t>87,48%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>91,3%</t>
-  </si>
-  <si>
-    <t>86,95%</t>
-  </si>
-  <si>
-    <t>85,1%</t>
-  </si>
-  <si>
-    <t>88,87%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>88,05%</t>
-  </si>
-  <si>
-    <t>85,54%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>89,1%</t>
-  </si>
-  <si>
-    <t>86,93%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>88,59%</t>
-  </si>
-  <si>
-    <t>86,8%</t>
-  </si>
-  <si>
-    <t>90,18%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
   </si>
   <si>
     <t>2,22%</t>
   </si>
   <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
+    <t>1,9%</t>
   </si>
   <si>
     <t>79,54%</t>
   </si>
   <si>
-    <t>78,04%</t>
-  </si>
-  <si>
-    <t>80,86%</t>
+    <t>81,03%</t>
   </si>
   <si>
     <t>82,21%</t>
   </si>
   <si>
+    <t>80,71%</t>
+  </si>
+  <si>
+    <t>83,54%</t>
+  </si>
+  <si>
     <t>80,9%</t>
   </si>
   <si>
-    <t>83,5%</t>
-  </si>
-  <si>
-    <t>79,95%</t>
-  </si>
-  <si>
-    <t>81,88%</t>
+    <t>80,0%</t>
+  </si>
+  <si>
+    <t>81,9%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1578,7 +1566,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC862F97-7B86-4528-92C9-03B9CB21AAC0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DD77414-D5B7-4DBE-8472-B5FF761A9FD1}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1858,10 +1846,10 @@
         <v>37</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H7" s="7">
         <v>8</v>
@@ -1870,13 +1858,13 @@
         <v>9192</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M7" s="7">
         <v>17</v>
@@ -1885,19 +1873,19 @@
         <v>19359</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C8" s="7">
         <v>184</v>
@@ -1906,13 +1894,13 @@
         <v>204931</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H8" s="7">
         <v>202</v>
@@ -1921,13 +1909,13 @@
         <v>211212</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M8" s="7">
         <v>386</v>
@@ -1936,13 +1924,13 @@
         <v>416143</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1957,13 +1945,13 @@
         <v>292815</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H9" s="7">
         <v>277</v>
@@ -1972,13 +1960,13 @@
         <v>288703</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M9" s="7">
         <v>542</v>
@@ -1987,18 +1975,18 @@
         <v>581518</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2010,13 +1998,13 @@
         <v>74644</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H10" s="7">
         <v>71</v>
@@ -2025,13 +2013,13 @@
         <v>74053</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M10" s="7">
         <v>143</v>
@@ -2040,13 +2028,13 @@
         <v>148697</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2061,13 +2049,13 @@
         <v>7209</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H11" s="7">
         <v>5</v>
@@ -2076,13 +2064,13 @@
         <v>4919</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M11" s="7">
         <v>12</v>
@@ -2091,13 +2079,13 @@
         <v>12128</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2112,13 +2100,13 @@
         <v>9222</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H12" s="7">
         <v>4</v>
@@ -2127,13 +2115,13 @@
         <v>4313</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M12" s="7">
         <v>12</v>
@@ -2142,13 +2130,13 @@
         <v>13535</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2163,13 +2151,13 @@
         <v>10121</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -2178,13 +2166,13 @@
         <v>5033</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M13" s="7">
         <v>15</v>
@@ -2193,7 +2181,7 @@
         <v>15155</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>92</v>
+        <v>44</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>93</v>
@@ -2205,7 +2193,7 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C14" s="7">
         <v>377</v>
@@ -2226,7 +2214,7 @@
         <v>397</v>
       </c>
       <c r="I14" s="7">
-        <v>432796</v>
+        <v>432797</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>98</v>
@@ -2265,28 +2253,28 @@
         <v>500840</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H15" s="7">
         <v>482</v>
       </c>
       <c r="I15" s="7">
-        <v>521114</v>
+        <v>521115</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M15" s="7">
         <v>956</v>
@@ -2295,13 +2283,13 @@
         <v>1021954</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2369,13 +2357,13 @@
         <v>12185</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H17" s="7">
         <v>14</v>
@@ -2384,13 +2372,13 @@
         <v>14387</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M17" s="7">
         <v>27</v>
@@ -2399,13 +2387,13 @@
         <v>26572</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2420,13 +2408,13 @@
         <v>3661</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="H18" s="7">
         <v>6</v>
@@ -2435,13 +2423,13 @@
         <v>6875</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>126</v>
+        <v>83</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>93</v>
+        <v>124</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="M18" s="7">
         <v>10</v>
@@ -2450,13 +2438,13 @@
         <v>10536</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>129</v>
+        <v>93</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>26</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2471,13 +2459,13 @@
         <v>6287</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H19" s="7">
         <v>4</v>
@@ -2486,13 +2474,13 @@
         <v>3886</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="M19" s="7">
         <v>11</v>
@@ -2501,19 +2489,19 @@
         <v>10173</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C20" s="7">
         <v>246</v>
@@ -2522,13 +2510,13 @@
         <v>234831</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="H20" s="7">
         <v>260</v>
@@ -2537,13 +2525,13 @@
         <v>263216</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="M20" s="7">
         <v>506</v>
@@ -2552,13 +2540,13 @@
         <v>498047</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2573,13 +2561,13 @@
         <v>318565</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
         <v>332</v>
@@ -2588,13 +2576,13 @@
         <v>336309</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
         <v>667</v>
@@ -2603,18 +2591,18 @@
         <v>654874</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2626,13 +2614,13 @@
         <v>53802</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>148</v>
+        <v>15</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="H22" s="7">
         <v>42</v>
@@ -2641,13 +2629,13 @@
         <v>43908</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="M22" s="7">
         <v>92</v>
@@ -2656,13 +2644,13 @@
         <v>97711</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2677,13 +2665,13 @@
         <v>2937</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>38</v>
+        <v>156</v>
       </c>
       <c r="H23" s="7">
         <v>5</v>
@@ -2692,13 +2680,13 @@
         <v>4747</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="M23" s="7">
         <v>8</v>
@@ -2707,13 +2695,13 @@
         <v>7684</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2728,10 +2716,10 @@
         <v>7131</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>28</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>165</v>
@@ -2758,13 +2746,13 @@
         <v>14580</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>87</v>
+        <v>169</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2779,13 +2767,13 @@
         <v>8109</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>82</v>
+        <v>171</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H25" s="7">
         <v>8</v>
@@ -2794,13 +2782,13 @@
         <v>8624</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>174</v>
+        <v>115</v>
       </c>
       <c r="M25" s="7">
         <v>16</v>
@@ -2809,19 +2797,19 @@
         <v>16733</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C26" s="7">
         <v>287</v>
@@ -2830,13 +2818,13 @@
         <v>297984</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H26" s="7">
         <v>296</v>
@@ -2845,13 +2833,13 @@
         <v>322555</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M26" s="7">
         <v>583</v>
@@ -2860,13 +2848,13 @@
         <v>620539</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2881,13 +2869,13 @@
         <v>369964</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H27" s="7">
         <v>358</v>
@@ -2896,13 +2884,13 @@
         <v>387283</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M27" s="7">
         <v>712</v>
@@ -2911,18 +2899,18 @@
         <v>757247</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2934,13 +2922,13 @@
         <v>17638</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H28" s="7">
         <v>12</v>
@@ -2949,10 +2937,10 @@
         <v>11294</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>192</v>
+        <v>119</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>193</v>
@@ -2988,10 +2976,10 @@
         <v>197</v>
       </c>
       <c r="F29" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="H29" s="7">
         <v>2</v>
@@ -3000,13 +2988,13 @@
         <v>1828</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>198</v>
+        <v>155</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>70</v>
+        <v>199</v>
       </c>
       <c r="M29" s="7">
         <v>4</v>
@@ -3039,7 +3027,7 @@
         <v>203</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>198</v>
+        <v>155</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>204</v>
@@ -3054,7 +3042,7 @@
         <v>205</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>198</v>
+        <v>155</v>
       </c>
       <c r="L30" s="7" t="s">
         <v>206</v>
@@ -3066,7 +3054,7 @@
         <v>2904</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>207</v>
@@ -3090,10 +3078,10 @@
         <v>209</v>
       </c>
       <c r="F31" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="H31" s="7">
         <v>3</v>
@@ -3102,13 +3090,13 @@
         <v>2821</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="M31" s="7">
         <v>8</v>
@@ -3117,19 +3105,19 @@
         <v>8350</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>217</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C32" s="7">
         <v>185</v>
@@ -3138,13 +3126,13 @@
         <v>184052</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H32" s="7">
         <v>205</v>
@@ -3153,13 +3141,13 @@
         <v>201776</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="M32" s="7">
         <v>390</v>
@@ -3168,13 +3156,13 @@
         <v>385828</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3189,13 +3177,13 @@
         <v>211221</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H33" s="7">
         <v>223</v>
@@ -3204,13 +3192,13 @@
         <v>218587</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M33" s="7">
         <v>435</v>
@@ -3219,18 +3207,18 @@
         <v>429808</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3242,13 +3230,13 @@
         <v>94028</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="H34" s="7">
         <v>126</v>
@@ -3257,13 +3245,13 @@
         <v>132539</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="M34" s="7">
         <v>219</v>
@@ -3272,13 +3260,13 @@
         <v>226567</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3293,13 +3281,13 @@
         <v>14161</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="H35" s="7">
         <v>5</v>
@@ -3308,13 +3296,13 @@
         <v>4856</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>241</v>
+        <v>85</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="M35" s="7">
         <v>18</v>
@@ -3323,13 +3311,13 @@
         <v>19017</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>244</v>
+        <v>206</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3344,13 +3332,13 @@
         <v>12715</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="H36" s="7">
         <v>4</v>
@@ -3359,13 +3347,13 @@
         <v>3965</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="M36" s="7">
         <v>17</v>
@@ -3374,13 +3362,13 @@
         <v>16680</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>77</v>
+        <v>248</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3395,13 +3383,13 @@
         <v>6769</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>254</v>
+        <v>135</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>255</v>
+        <v>169</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="H37" s="7">
         <v>3</v>
@@ -3410,13 +3398,13 @@
         <v>3000</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>259</v>
+        <v>127</v>
       </c>
       <c r="M37" s="7">
         <v>9</v>
@@ -3425,19 +3413,19 @@
         <v>9768</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>173</v>
+        <v>197</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>31</v>
+        <v>254</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C38" s="7">
         <v>134</v>
@@ -3446,13 +3434,13 @@
         <v>135450</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="H38" s="7">
         <v>125</v>
@@ -3461,13 +3449,13 @@
         <v>128755</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="M38" s="7">
         <v>259</v>
@@ -3476,13 +3464,13 @@
         <v>264205</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3497,13 +3485,13 @@
         <v>263123</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H39" s="7">
         <v>263</v>
@@ -3512,13 +3500,13 @@
         <v>273115</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M39" s="7">
         <v>522</v>
@@ -3527,18 +3515,18 @@
         <v>536238</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -3550,13 +3538,13 @@
         <v>62211</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H40" s="7">
         <v>42</v>
@@ -3565,13 +3553,13 @@
         <v>45246</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="M40" s="7">
         <v>97</v>
@@ -3580,13 +3568,13 @@
         <v>107457</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3601,13 +3589,13 @@
         <v>14086</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>244</v>
+        <v>92</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>281</v>
+        <v>212</v>
       </c>
       <c r="H41" s="7">
         <v>4</v>
@@ -3616,13 +3604,13 @@
         <v>4016</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="M41" s="7">
         <v>17</v>
@@ -3631,13 +3619,13 @@
         <v>18103</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3652,13 +3640,13 @@
         <v>9799</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>134</v>
+        <v>29</v>
       </c>
       <c r="H42" s="7">
         <v>12</v>
@@ -3667,13 +3655,13 @@
         <v>11597</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>291</v>
+        <v>203</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>292</v>
+        <v>123</v>
       </c>
       <c r="M42" s="7">
         <v>20</v>
@@ -3682,13 +3670,13 @@
         <v>21395</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>294</v>
+        <v>160</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3703,13 +3691,13 @@
         <v>14925</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>280</v>
+        <v>177</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="H43" s="7">
         <v>13</v>
@@ -3718,13 +3706,13 @@
         <v>13367</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>298</v>
+        <v>162</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>177</v>
+        <v>288</v>
       </c>
       <c r="M43" s="7">
         <v>27</v>
@@ -3733,19 +3721,19 @@
         <v>28292</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C44" s="7">
         <v>490</v>
@@ -3754,13 +3742,13 @@
         <v>555536</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="H44" s="7">
         <v>570</v>
@@ -3769,13 +3757,13 @@
         <v>611611</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="M44" s="7">
         <v>1060</v>
@@ -3784,13 +3772,13 @@
         <v>1167147</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3805,13 +3793,13 @@
         <v>656558</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H45" s="7">
         <v>641</v>
@@ -3820,13 +3808,13 @@
         <v>685837</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M45" s="7">
         <v>1221</v>
@@ -3835,18 +3823,18 @@
         <v>1342395</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -3858,13 +3846,13 @@
         <v>48601</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>33</v>
+        <v>302</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="H46" s="7">
         <v>44</v>
@@ -3873,13 +3861,13 @@
         <v>45649</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="M46" s="7">
         <v>88</v>
@@ -3888,13 +3876,13 @@
         <v>94250</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>253</v>
+        <v>309</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3909,13 +3897,13 @@
         <v>7764</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="H47" s="7">
         <v>9</v>
@@ -3924,13 +3912,13 @@
         <v>9676</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>324</v>
+        <v>171</v>
       </c>
       <c r="M47" s="7">
         <v>17</v>
@@ -3939,13 +3927,13 @@
         <v>17439</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>327</v>
+        <v>282</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3960,13 +3948,13 @@
         <v>15802</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>328</v>
+        <v>38</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>123</v>
+        <v>318</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>204</v>
+        <v>319</v>
       </c>
       <c r="H48" s="7">
         <v>9</v>
@@ -3975,13 +3963,13 @@
         <v>9069</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="K48" s="7" t="s">
         <v>320</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>329</v>
+        <v>128</v>
       </c>
       <c r="M48" s="7">
         <v>24</v>
@@ -3990,13 +3978,13 @@
         <v>24871</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>255</v>
+        <v>321</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>172</v>
+        <v>322</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -4011,13 +3999,13 @@
         <v>20763</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="H49" s="7">
         <v>23</v>
@@ -4026,13 +4014,13 @@
         <v>25253</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>76</v>
+        <v>162</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="M49" s="7">
         <v>42</v>
@@ -4041,19 +4029,19 @@
         <v>46016</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>335</v>
+        <v>71</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>336</v>
+        <v>77</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C50" s="7">
         <v>663</v>
@@ -4062,13 +4050,13 @@
         <v>684702</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="H50" s="7">
         <v>666</v>
@@ -4077,13 +4065,13 @@
         <v>732614</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="M50" s="7">
         <v>1329</v>
@@ -4092,13 +4080,13 @@
         <v>1417316</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4113,13 +4101,13 @@
         <v>777632</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H51" s="7">
         <v>751</v>
@@ -4128,13 +4116,13 @@
         <v>822260</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M51" s="7">
         <v>1500</v>
@@ -4143,13 +4131,13 @@
         <v>1599892</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -4166,13 +4154,13 @@
         <v>475255</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="H52" s="7">
         <v>438</v>
@@ -4181,13 +4169,13 @@
         <v>455464</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="M52" s="7">
         <v>893</v>
@@ -4196,13 +4184,13 @@
         <v>930719</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>355</v>
+        <v>108</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -4217,13 +4205,13 @@
         <v>64769</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>163</v>
+        <v>346</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>92</v>
+        <v>347</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="H53" s="7">
         <v>48</v>
@@ -4232,13 +4220,13 @@
         <v>48260</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>294</v>
+        <v>321</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>260</v>
+        <v>350</v>
       </c>
       <c r="M53" s="7">
         <v>111</v>
@@ -4247,13 +4235,13 @@
         <v>113029</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>331</v>
+        <v>351</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>24</v>
+        <v>352</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>215</v>
+        <v>353</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -4268,13 +4256,13 @@
         <v>70897</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>73</v>
+        <v>156</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>331</v>
+        <v>354</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="H54" s="7">
         <v>53</v>
@@ -4286,10 +4274,10 @@
         <v>21</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>322</v>
+        <v>121</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>359</v>
+        <v>128</v>
       </c>
       <c r="M54" s="7">
         <v>119</v>
@@ -4298,13 +4286,13 @@
         <v>124669</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>360</v>
+        <v>313</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>244</v>
+        <v>356</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -4319,13 +4307,13 @@
         <v>82669</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>164</v>
+        <v>128</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="H55" s="7">
         <v>67</v>
@@ -4334,13 +4322,13 @@
         <v>71177</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>202</v>
+        <v>359</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="M55" s="7">
         <v>145</v>
@@ -4349,19 +4337,19 @@
         <v>153846</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>367</v>
+        <v>209</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C56" s="7">
         <v>2566</v>
@@ -4370,13 +4358,13 @@
         <v>2697129</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>369</v>
+        <v>55</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="H56" s="7">
         <v>2721</v>
@@ -4385,13 +4373,13 @@
         <v>2904535</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="M56" s="7">
         <v>5287</v>
@@ -4400,13 +4388,13 @@
         <v>5601664</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4421,13 +4409,13 @@
         <v>3390718</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H57" s="7">
         <v>3327</v>
@@ -4436,13 +4424,13 @@
         <v>3533208</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M57" s="7">
         <v>6555</v>
@@ -4451,18 +4439,18 @@
         <v>6923926</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36B01-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P36B01-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{54F6AED3-CE40-4F83-9540-DBC8F2E61B2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{31530049-E657-4797-87B1-A69A45D961AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1D982852-9438-4A47-9871-CFAA2684ED3A}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{42602E6B-D8A5-41E4-B7AE-E3942FB03D3C}"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="2" r:id="rId1"/>
@@ -1566,7 +1566,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DD77414-D5B7-4DBE-8472-B5FF761A9FD1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64E0C42F-DDE3-43C5-9E91-FE1DF97D0126}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -4370,7 +4370,7 @@
         <v>2721</v>
       </c>
       <c r="I56" s="7">
-        <v>2904535</v>
+        <v>2904536</v>
       </c>
       <c r="J56" s="7" t="s">
         <v>366</v>
@@ -4421,7 +4421,7 @@
         <v>3327</v>
       </c>
       <c r="I57" s="7">
-        <v>3533208</v>
+        <v>3533209</v>
       </c>
       <c r="J57" s="7" t="s">
         <v>59</v>
